--- a/output/corr_pvalues.xlsx
+++ b/output/corr_pvalues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5DD4CA-51AE-4859-B33A-EF163CE8BDF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED9B22-8F32-44BA-804D-969D6B5D18DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="62">
   <si>
     <t>Couple Frequency of Touch</t>
   </si>
@@ -204,7 +204,16 @@
     <t>PVALUE</t>
   </si>
   <si>
-    <t>PVALUE#</t>
+    <t>Spearman coeff</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Spearman correlation coefficients</t>
+  </si>
+  <si>
+    <t>p-values</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,22 +231,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,11 +254,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,17 +331,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +641,7 @@
   <dimension ref="A1:DI60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="A3:C49"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,16 +752,16 @@
       <c r="AP3" s="1"/>
     </row>
     <row r="4" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>1.40235143153287E-2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>1.09955870996713E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>-1.8848571703955101E-2</v>
       </c>
       <c r="E4" s="1"/>
@@ -996,16 +1081,16 @@
       </c>
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>-0.31162278529333998</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>-0.30074724081056198</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>0.12267821175115499</v>
       </c>
       <c r="E5" s="1"/>
@@ -1325,16 +1410,16 @@
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>0.139462702046693</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>0.108081343303987</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>-0.102289689833514</v>
       </c>
       <c r="E6" s="1"/>
@@ -1654,16 +1739,16 @@
       </c>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>3.8544953089873199E-2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>4.6867547675950499E-2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>-7.6503968303222201E-3</v>
       </c>
       <c r="E7" s="1"/>
@@ -1983,16 +2068,16 @@
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>6.3643239043172595E-2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>5.0844798590620501E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>-4.8560327459303998E-2</v>
       </c>
       <c r="E8" s="1"/>
@@ -2312,16 +2397,16 @@
       </c>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>-2.6895742282398E-3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>2.3260527118689101E-3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>1.53049347632293E-2</v>
       </c>
       <c r="E9" s="1"/>
@@ -2641,16 +2726,16 @@
       </c>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>-0.30688085645565</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>-0.29249851642848301</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>0.119563590476204</v>
       </c>
       <c r="E10" s="1"/>
@@ -2970,16 +3055,16 @@
       </c>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>0.140548140797006</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>0.103001956100748</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>-0.121689709611531</v>
       </c>
       <c r="E11" s="1"/>
@@ -3299,16 +3384,16 @@
       </c>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>3.82249553074493E-2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>4.5738744955056899E-2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>-7.8244965009721095E-3</v>
       </c>
       <c r="E12" s="1"/>
@@ -3628,16 +3713,16 @@
       </c>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>6.7380766871940403E-2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>5.0563219289752603E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>-5.39679155032795E-2</v>
       </c>
       <c r="E13" s="1"/>
@@ -3957,16 +4042,16 @@
       </c>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>6.7339969587876899E-2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>5.9470450146331698E-2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>-3.9099728584068801E-2</v>
       </c>
       <c r="E14" s="1"/>
@@ -4286,16 +4371,16 @@
       </c>
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>0.12181443121503401</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>0.10311878711317</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>-6.3032858050657004E-2</v>
       </c>
       <c r="E15" s="1"/>
@@ -4615,16 +4700,16 @@
       </c>
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>1.67503820683483E-2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>4.3084613027307497E-3</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>-3.7777366855286397E-2</v>
       </c>
       <c r="E16" s="1"/>
@@ -4944,16 +5029,16 @@
       </c>
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>8.3586841232249895E-2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>7.70828492696293E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>-3.6286307700515399E-2</v>
       </c>
       <c r="E17" s="1"/>
@@ -5273,16 +5358,16 @@
       </c>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>-5.6047923914286001E-2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>-4.66538150802731E-3</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>9.9881167001216298E-2</v>
       </c>
       <c r="E18" s="1"/>
@@ -5602,16 +5687,16 @@
       </c>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>1.13234117372478E-2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>2.2885368376448601E-2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>8.38010705862729E-3</v>
       </c>
       <c r="E19" s="1"/>
@@ -5931,16 +6016,16 @@
       </c>
     </row>
     <row r="20" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>-3.3219121474238902E-2</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>-2.3339236566915101E-2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>2.82355389131058E-2</v>
       </c>
       <c r="E20" s="1"/>
@@ -6260,16 +6345,16 @@
       </c>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>7.1191828255541198E-2</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>6.20292155561517E-2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>-3.9488322496886899E-2</v>
       </c>
       <c r="E21" s="1"/>
@@ -6589,16 +6674,16 @@
       </c>
     </row>
     <row r="22" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>0.13610711020696301</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>0.127982848293026</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>-6.2586192949529801E-2</v>
       </c>
       <c r="E22" s="1"/>
@@ -6918,16 +7003,16 @@
       </c>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>-1.5342457537641799E-2</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>-3.3953612383531298E-2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>-1.26797245599365E-2</v>
       </c>
       <c r="E23" s="1"/>
@@ -7247,16 +7332,16 @@
       </c>
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>0.126779616269416</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>0.102436961016173</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>-8.1846267469124101E-2</v>
       </c>
       <c r="E24" s="1"/>
@@ -7576,16 +7661,16 @@
       </c>
     </row>
     <row r="25" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>-5.9750754268714602E-2</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>-3.0786727141600299E-3</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>0.10242196436794999</v>
       </c>
       <c r="E25" s="1"/>
@@ -7905,16 +7990,16 @@
       </c>
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>5.9230787643731295E-4</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>8.6086841295029606E-3</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>-4.9724138975721496E-3</v>
       </c>
       <c r="E26" s="1"/>
@@ -8234,16 +8319,16 @@
       </c>
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>-3.5715989780346798E-2</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>-2.8062754226545999E-2</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>2.13522130128234E-2</v>
       </c>
       <c r="E27" s="1"/>
@@ -8563,16 +8648,16 @@
       </c>
     </row>
     <row r="28" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>-1.6500377766902399E-2</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>3.7791817015237997E-2</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <v>8.5646339416081907E-2</v>
       </c>
       <c r="E28" s="1"/>
@@ -8892,16 +8977,16 @@
       </c>
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>-0.14554089284969199</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>-5.9834232582440097E-2</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7">
         <v>0.167304323133286</v>
       </c>
       <c r="E29" s="1"/>
@@ -9221,16 +9306,16 @@
       </c>
     </row>
     <row r="30" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>8.4030926466336198E-2</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>2.3379001041423399E-2</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="7">
         <v>-0.12769917942035999</v>
       </c>
       <c r="E30" s="1"/>
@@ -9550,16 +9635,16 @@
       </c>
     </row>
     <row r="31" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>0.15604780142771499</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>9.4557091461355797E-2</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>-0.145246258413158</v>
       </c>
       <c r="E31" s="1"/>
@@ -9879,16 +9964,16 @@
       </c>
     </row>
     <row r="32" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>0.120684476569142</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>8.4705889459549794E-2</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="7">
         <v>-9.9252536410711606E-2</v>
       </c>
       <c r="E32" s="1"/>
@@ -10208,16 +10293,16 @@
       </c>
     </row>
     <row r="33" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="7">
         <v>-2.9499492447240101E-2</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>3.6500251068159302E-2</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="7">
         <v>0.10933059350428199</v>
       </c>
       <c r="E33" s="1"/>
@@ -10537,16 +10622,16 @@
       </c>
     </row>
     <row r="34" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="7">
         <v>-0.174183934915841</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>-7.8162386202791007E-2</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="7">
         <v>0.198561152659366</v>
       </c>
       <c r="E34" s="1"/>
@@ -10866,16 +10951,16 @@
       </c>
     </row>
     <row r="35" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>8.1597795678634705E-2</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>2.0818262780090701E-2</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="7">
         <v>-0.127909528581551</v>
       </c>
       <c r="E35" s="1"/>
@@ -11195,16 +11280,16 @@
       </c>
     </row>
     <row r="36" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <v>0.18229269599864001</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>0.11905412576920001</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="7">
         <v>-0.16255453501206399</v>
       </c>
       <c r="E36" s="1"/>
@@ -11524,16 +11609,16 @@
       </c>
     </row>
     <row r="37" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="7">
         <v>0.14371300000312501</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>8.8541133971239E-2</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="7">
         <v>-0.13549261555725101</v>
       </c>
       <c r="E37" s="1"/>
@@ -11853,16 +11938,16 @@
       </c>
     </row>
     <row r="38" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="7">
         <v>2.88980553513009E-2</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>2.7473573145437101E-2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="7">
         <v>-1.04501821710125E-2</v>
       </c>
       <c r="E38" s="1"/>
@@ -12182,16 +12267,16 @@
       </c>
     </row>
     <row r="39" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="7">
         <v>-0.33810629442148099</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>-0.312583129167887</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="7">
         <v>0.16721970892742799</v>
       </c>
       <c r="E39" s="1"/>
@@ -12511,16 +12596,16 @@
       </c>
     </row>
     <row r="40" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="7">
         <v>-1.0629635926719399E-2</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>-8.83675603243461E-3</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="7">
         <v>-5.2813151571996899E-3</v>
       </c>
       <c r="E40" s="1"/>
@@ -12840,16 +12925,16 @@
       </c>
     </row>
     <row r="41" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="7">
         <v>-0.238317738955026</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>-0.222066709509121</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="7">
         <v>0.12338997548997099</v>
       </c>
       <c r="E41" s="1"/>
@@ -13169,16 +13254,16 @@
       </c>
     </row>
     <row r="42" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="7">
         <v>-0.100674304373361</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>-0.12892219149624901</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="7">
         <v>4.1446914861420499E-2</v>
       </c>
       <c r="E42" s="1"/>
@@ -13498,16 +13583,16 @@
       </c>
     </row>
     <row r="43" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="7">
         <v>-0.33566365700721901</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>-0.259670906549755</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="7">
         <v>0.23493092689226899</v>
       </c>
       <c r="E43" s="1"/>
@@ -13827,16 +13912,16 @@
       </c>
     </row>
     <row r="44" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="7">
         <v>0.47172675246821899</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>0.36679313365974497</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="7">
         <v>-0.32272231507112298</v>
       </c>
       <c r="E44" s="1"/>
@@ -14156,16 +14241,16 @@
       </c>
     </row>
     <row r="45" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="7">
         <v>0.40266739263437301</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>0.28007879383607298</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="7">
         <v>-0.32077313839485599</v>
       </c>
       <c r="E45" s="1"/>
@@ -14485,16 +14570,16 @@
       </c>
     </row>
     <row r="46" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="7">
         <v>0.29366794906583299</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>0.21812403277877901</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="7">
         <v>-0.213998768277745</v>
       </c>
       <c r="E46" s="1"/>
@@ -14814,16 +14899,16 @@
       </c>
     </row>
     <row r="47" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="7">
         <v>0.45900716776392497</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>0.350222243414747</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="7">
         <v>-0.315959427394429</v>
       </c>
       <c r="E47" s="1"/>
@@ -15143,16 +15228,16 @@
       </c>
     </row>
     <row r="48" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="7">
         <v>0.40940719943576998</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>0.28757354598637302</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="7">
         <v>-0.32917063735725499</v>
       </c>
       <c r="E48" s="1"/>
@@ -15472,16 +15557,16 @@
       </c>
     </row>
     <row r="49" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="7">
         <v>0.291658479952424</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>0.217769090471334</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="7">
         <v>-0.199158689941385</v>
       </c>
       <c r="E49" s="1"/>
@@ -16869,8 +16954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B67DA-A12B-4221-BB82-0A71DDA5828F}">
   <dimension ref="A2:DF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C49" activeCellId="1" sqref="C46 C49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16891,18 +16976,21 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="E3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="J3" t="s">
         <v>0</v>
       </c>
@@ -17205,25 +17293,25 @@
       </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>-7.5358709785065597E-4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>5.3285592081142E-4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>-6.9697141098774102E-3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>0.97489773560900395</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>0.98224890935222497</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <v>0.77103172503998696</v>
       </c>
       <c r="J4" t="s">
@@ -17528,25 +17616,25 @@
       </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>-0.219609460307164</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>-0.21361687393217099</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>5.9796839055691102E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>1.6415749332891601E-20</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>1.8137804431562499E-19</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>1.2452049729682699E-2</v>
       </c>
       <c r="J5" t="s">
@@ -17851,25 +17939,25 @@
       </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>1.7765045582742899E-2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>9.6208270328410105E-4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>-6.00695472407781E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>0.46012307021517301</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>0.96809406492554495</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>1.2431154011959E-2</v>
       </c>
       <c r="J6" t="s">
@@ -18174,25 +18262,25 @@
       </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>-6.6000279387965202E-3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>3.0458297020112799E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>4.6144957729153398E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>0.78304616279922501</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
         <v>0.20373087870106499</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="10">
         <v>5.4084219303053203E-2</v>
       </c>
       <c r="J7" t="s">
@@ -18497,25 +18585,25 @@
       </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>7.0269805296664101E-2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>5.75707507084397E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>-4.2470938650648701E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>3.3329409339721899E-3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>1.6225412932210099E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <v>7.6285444045992301E-2</v>
       </c>
       <c r="J8" t="s">
@@ -18820,25 +18908,25 @@
       </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>4.7682897638038398E-4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>4.7475033941410298E-3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>1.1653612528787501E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>0.984133310458571</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="10">
         <v>0.84303979640827398</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="10">
         <v>0.62692647999668305</v>
       </c>
       <c r="J9" t="s">
@@ -19143,25 +19231,25 @@
       </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>-0.22487071407845699</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>-0.202962898407299</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>7.08335966739293E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>1.8774769415708601E-21</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>1.08971262082776E-17</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <v>3.06249806209639E-3</v>
       </c>
       <c r="J10" t="s">
@@ -19466,25 +19554,25 @@
       </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>6.5941043255146894E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>2.7792884664757E-2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>-8.3318399579530994E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>6.1637856930572103E-3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>0.24875593990428899</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="10">
         <v>5.3422180763609698E-4</v>
       </c>
       <c r="J11" t="s">
@@ -19789,25 +19877,25 @@
       </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>-1.99508067281748E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>1.49403544897833E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>4.5202725401009301E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>0.41730821424218301</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <v>0.54360302880764999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="10">
         <v>6.5992639888127494E-2</v>
       </c>
       <c r="J12" t="s">
@@ -20112,25 +20200,25 @@
       </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>7.3215541142884505E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>5.3116561212968802E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>-5.0153627196763299E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>2.9053802212207999E-3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="10">
         <v>3.08655268240343E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="10">
         <v>4.15275310603124E-2</v>
       </c>
       <c r="J13" t="s">
@@ -20435,25 +20523,25 @@
       </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>4.42561584714437E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>4.54220824671537E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>-6.1185167093181798E-3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>6.49432766600474E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <v>5.8182361904189198E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="10">
         <v>0.79869024049566295</v>
       </c>
       <c r="J14" t="s">
@@ -20758,25 +20846,25 @@
       </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>8.0030973619047596E-2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>5.6924022344940199E-2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>-7.1124139161250002E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>8.3381636054137196E-4</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <v>1.7562814510780501E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="10">
         <v>2.9930497178755101E-3</v>
       </c>
       <c r="J15" t="s">
@@ -21081,25 +21169,25 @@
       </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>-3.0097265196942298E-3</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>-1.40660186102763E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>-2.7763331326092398E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>0.90021996203657795</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="10">
         <v>0.55786882838242702</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="10">
         <v>0.24734392203599501</v>
       </c>
       <c r="J16" t="s">
@@ -21404,25 +21492,25 @@
       </c>
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>9.4125385545140397E-2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>9.2730374476834895E-2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>-3.7512724062207202E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>8.5775232723450101E-5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="10">
         <v>1.09193883078678E-4</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="10">
         <v>0.118192782164253</v>
       </c>
       <c r="J17" t="s">
@@ -21727,25 +21815,25 @@
       </c>
     </row>
     <row r="18" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>-2.4470922463554399E-2</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>4.8485350209061098E-2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>8.8299576324766205E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <v>0.30750283469447898</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="10">
         <v>4.3093555973201102E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="10">
         <v>2.25237548531746E-4</v>
       </c>
       <c r="J18" t="s">
@@ -22050,25 +22138,25 @@
       </c>
     </row>
     <row r="19" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>2.3255870265757199E-2</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>6.7067081263939093E-2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>4.0081853220341697E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="10">
         <v>0.333404728350782</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="10">
         <v>5.2338005361020302E-3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="10">
         <v>9.5402210917277699E-2</v>
       </c>
       <c r="J19" t="s">
@@ -22373,25 +22461,25 @@
       </c>
     </row>
     <row r="20" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>-2.20890403512429E-2</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>-7.8113904551963299E-3</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>2.8068782939947801E-2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <v>0.35671024648007499</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="10">
         <v>0.74450703647533301</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="10">
         <v>0.24150201606792901</v>
       </c>
       <c r="J20" t="s">
@@ -22696,25 +22784,25 @@
       </c>
     </row>
     <row r="21" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>5.15335960430768E-2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>3.1541042327991799E-2</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>-1.1422991008262899E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>3.1691300683005602E-2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="10">
         <v>0.18874331836431699</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="10">
         <v>0.634152947720103</v>
       </c>
       <c r="J21" t="s">
@@ -23019,25 +23107,25 @@
       </c>
     </row>
     <row r="22" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>0.115695902458868</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>0.11924553320525701</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>6.1866136970922E-4</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>1.2698566336926E-6</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="10">
         <v>5.9111482192361597E-7</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="10">
         <v>0.97940287492891898</v>
       </c>
       <c r="J22" t="s">
@@ -23342,25 +23430,25 @@
       </c>
     </row>
     <row r="23" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>-3.1355626212391803E-2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>-8.0791448786006401E-2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>-3.27627426255837E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <v>0.190845977725003</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="10">
         <v>7.3785468552004603E-4</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="10">
         <v>0.17168395138775699</v>
       </c>
       <c r="J23" t="s">
@@ -23665,25 +23753,25 @@
       </c>
     </row>
     <row r="24" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>9.46233857638272E-2</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>8.5797882686184407E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>-2.8231534117800501E-2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <v>7.8257080475294593E-5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="10">
         <v>3.4378451936732402E-4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="10">
         <v>0.239593917156907</v>
       </c>
       <c r="J24" t="s">
@@ -23988,25 +24076,25 @@
       </c>
     </row>
     <row r="25" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>-7.39989139914808E-2</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>-1.2669687256817901E-3</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>8.6192742338254802E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <v>2.0039566053426999E-3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="10">
         <v>0.95786999313393695</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="10">
         <v>3.1756126352988601E-4</v>
       </c>
       <c r="J25" t="s">
@@ -24311,25 +24399,25 @@
       </c>
     </row>
     <row r="26" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>-5.60741030604374E-3</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>4.0532824555117399E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>4.36647316475932E-2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <v>0.81555480914914102</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="10">
         <v>9.1636141503641799E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="10">
         <v>6.9173007534422404E-2</v>
       </c>
       <c r="J26" t="s">
@@ -24634,25 +24722,25 @@
       </c>
     </row>
     <row r="27" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>-1.6166352482227801E-2</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>1.7230534567457802E-2</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>5.3441205473188702E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <v>0.499997934707056</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="10">
         <v>0.47220301520035701</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="10">
         <v>2.56729070418108E-2</v>
       </c>
       <c r="J27" t="s">
@@ -24957,25 +25045,25 @@
       </c>
     </row>
     <row r="28" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>1.2743534962225401E-2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>0.109110398816262</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>9.2102582399556696E-2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>0.59505834693867099</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="10">
         <v>5.01081255338027E-6</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="10">
         <v>1.1834187032870199E-4</v>
       </c>
       <c r="J28" t="s">
@@ -25280,25 +25368,25 @@
       </c>
     </row>
     <row r="29" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>-0.114781877369301</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>3.6871992264321599E-2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>0.18601123459219901</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <v>1.5300834078816099E-6</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="10">
         <v>0.12363816743881501</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="10">
         <v>4.75707662822203E-15</v>
       </c>
       <c r="J29" t="s">
@@ -25603,25 +25691,25 @@
       </c>
     </row>
     <row r="30" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>6.5442327571133899E-2</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>-2.7801258857279201E-2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>-0.13022730448606101</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="10">
         <v>6.37898368293609E-3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="10">
         <v>0.24697091282870701</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="10">
         <v>5.1730085165049999E-8</v>
       </c>
       <c r="J30" t="s">
@@ -25926,25 +26014,25 @@
       </c>
     </row>
     <row r="31" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>0.12986638393268499</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>2.6235899508243499E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>-0.13581323254091601</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="10">
         <v>5.2522173072028199E-8</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="10">
         <v>0.27349637092266299</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="10">
         <v>1.2405229432815901E-8</v>
       </c>
       <c r="J31" t="s">
@@ -26249,25 +26337,25 @@
       </c>
     </row>
     <row r="32" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>5.73640011916806E-2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>1.26287551331828E-2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>-0.104564940715761</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>1.65509511273794E-2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10">
         <v>0.59806409754824197</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="10">
         <v>1.20387516379795E-5</v>
       </c>
       <c r="J32" t="s">
@@ -26572,25 +26660,25 @@
       </c>
     </row>
     <row r="33" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>-4.4607385433443503E-2</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9">
         <v>5.2182951037883799E-2</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>0.10857444256891299</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>6.2690422484769803E-2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="10">
         <v>2.9413882506552799E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="10">
         <v>5.57811145156985E-6</v>
       </c>
       <c r="J33" t="s">
@@ -26895,25 +26983,25 @@
       </c>
     </row>
     <row r="34" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>-0.161898236878077</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>-3.88164217958109E-2</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>0.16624730753113501</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <v>1.0521461548760501E-11</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="10">
         <v>0.105231309945755</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="10">
         <v>2.8612173388698699E-12</v>
       </c>
       <c r="J34" t="s">
@@ -27218,25 +27306,25 @@
       </c>
     </row>
     <row r="35" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>7.24114552205182E-2</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>1.16504072276467E-2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>-8.4564227270826603E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <v>2.5447666353477501E-3</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="10">
         <v>0.62771536896924696</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="10">
         <v>4.2163107986200498E-4</v>
       </c>
       <c r="J35" t="s">
@@ -27541,25 +27629,25 @@
       </c>
     </row>
     <row r="36" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>0.123233211770782</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>5.8612342127050097E-2</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>-9.5617563977452594E-2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <v>2.4384516572897999E-7</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="10">
         <v>1.4362253615594499E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="10">
         <v>6.35005813543372E-5</v>
       </c>
       <c r="J36" t="s">
@@ -27864,25 +27952,25 @@
       </c>
     </row>
     <row r="37" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>9.38157161202752E-2</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>3.3784183224757701E-2</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>-0.114865039124634</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="10">
         <v>8.6384901052944096E-5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="10">
         <v>0.15822413036691299</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="10">
         <v>1.49313407609776E-6</v>
       </c>
       <c r="J37" t="s">
@@ -28187,25 +28275,25 @@
       </c>
     </row>
     <row r="38" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>3.1903914049013597E-2</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>3.00620631434197E-2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>-7.9957238897149299E-3</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="10">
         <v>0.18269765570253799</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="10">
         <v>0.20928554806813801</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="10">
         <v>0.73847863439765704</v>
       </c>
       <c r="J38" t="s">
@@ -28510,25 +28598,25 @@
       </c>
     </row>
     <row r="39" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>-0.24334219033495</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>-0.23504003659318301</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>7.01126955475809E-2</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>1.36671173148039E-24</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="10">
         <v>5.2617494009566002E-23</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="10">
         <v>3.6328887352153399E-3</v>
       </c>
       <c r="J39" t="s">
@@ -28833,25 +28921,25 @@
       </c>
     </row>
     <row r="40" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>-4.2665331935376801E-3</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>5.4148338402479198E-3</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>5.5047301033310202E-3</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="10">
         <v>0.85860444656380597</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="10">
         <v>0.821124154590819</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="10">
         <v>0.81820594602817398</v>
       </c>
       <c r="J40" t="s">
@@ -29156,25 +29244,25 @@
       </c>
     </row>
     <row r="41" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>-0.11536029451527199</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>-0.13379789153680399</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>5.1126336681130702E-2</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="10">
         <v>1.3446379478505201E-6</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="10">
         <v>1.9998630530239201E-8</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="10">
         <v>3.2663967590979497E-2</v>
       </c>
       <c r="J41" t="s">
@@ -29479,25 +29567,25 @@
       </c>
     </row>
     <row r="42" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>1.04449868612268E-2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>-0.12593861320727301</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>-7.2848364067017293E-2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="10">
         <v>0.66273165276426105</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="10">
         <v>1.2944491016293901E-7</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="10">
         <v>2.3202480180544698E-3</v>
       </c>
       <c r="J42" t="s">
@@ -29802,25 +29890,25 @@
       </c>
     </row>
     <row r="43" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>-0.21722064075377601</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>-0.13154783760335101</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>0.171696779574844</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="10">
         <v>4.4207800571505902E-20</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="10">
         <v>3.4834635620941497E-8</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="10">
         <v>5.1656440644497601E-13</v>
       </c>
       <c r="J43" t="s">
@@ -30125,25 +30213,25 @@
       </c>
     </row>
     <row r="44" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>0.36380300432580998</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>0.25183164749157599</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>-0.19792934733963799</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>8.6102083219654299E-54</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="10">
         <v>9.6027630423336403E-26</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="10">
         <v>2.55511936823223E-16</v>
       </c>
       <c r="J44" t="s">
@@ -30448,25 +30536,25 @@
       </c>
     </row>
     <row r="45" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>0.34026729795461003</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>0.19437551274571099</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>-0.24851604244515299</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>1.6895152816384099E-48</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="10">
         <v>2.6688980152962099E-16</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="10">
         <v>6.0480615072384695E-26</v>
       </c>
       <c r="J45" t="s">
@@ -30771,25 +30859,25 @@
       </c>
     </row>
     <row r="46" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>0.22690626084784599</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>0.14266863511991201</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>-0.1561345491019</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>4.7877158591003802E-21</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="10">
         <v>4.3150833099966797E-9</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="10">
         <v>1.2558037519113901E-10</v>
       </c>
       <c r="J46" t="s">
@@ -31094,25 +31182,25 @@
       </c>
     </row>
     <row r="47" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>0.36875426690255297</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>0.22500786937824899</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>-0.245098486907152</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>1.18702546975135E-49</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="10">
         <v>1.02481143092445E-18</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="10">
         <v>5.1686934200045196E-22</v>
       </c>
       <c r="J47" t="s">
@@ -31417,25 +31505,25 @@
       </c>
     </row>
     <row r="48" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>0.33823361733236701</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>0.196361332433452</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>-0.235417639881841</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="10">
         <v>5.4995932356275495E-48</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="10">
         <v>1.2333244431662999E-16</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="10">
         <v>2.05458361307885E-23</v>
       </c>
       <c r="J48" t="s">
@@ -31740,25 +31828,25 @@
       </c>
     </row>
     <row r="49" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>0.23305391830571301</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>0.123333176616472</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>-0.17990149998760199</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="10">
         <v>5.33468345813164E-20</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="10">
         <v>1.6074865159117299E-6</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="10">
         <v>2.0883153582872999E-12</v>
       </c>
       <c r="J49" t="s">
@@ -32673,10 +32761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD14A1-276E-43E5-83E2-F3A6A37721BD}">
-  <dimension ref="A2:DE52"/>
+  <dimension ref="A1:DE52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32687,42 +32775,56 @@
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
+      <c r="E3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>4.5685704168631998E-2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>3.6338227807354302E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>-4.4867293312465001E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>1.05926985080276E-2</v>
       </c>
       <c r="F4" s="1">
@@ -33032,19 +33134,19 @@
       </c>
     </row>
     <row r="5" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>-0.3335339091824</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>-0.30304212719284601</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.137000825425839</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>3.1592942904696202E-82</v>
       </c>
       <c r="F5" s="1">
@@ -33354,19 +33456,19 @@
       </c>
     </row>
     <row r="6" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>9.8376496127000002E-2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>9.7346282863422798E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>-3.17023678793453E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>4.2412452650140901E-8</v>
       </c>
       <c r="F6" s="1">
@@ -33676,19 +33778,19 @@
       </c>
     </row>
     <row r="7" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>3.1644219000002298E-2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>2.9146612415642301E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>-9.7525185062052495E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>7.7038455963465202E-2</v>
       </c>
       <c r="F7" s="1">
@@ -33998,19 +34100,19 @@
       </c>
     </row>
     <row r="8" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>5.3149099907496097E-2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>4.5117752370285501E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>-5.4516651913101802E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>2.9674960277715099E-3</v>
       </c>
       <c r="F8" s="1">
@@ -34320,19 +34422,19 @@
       </c>
     </row>
     <row r="9" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>-2.6370047868698E-2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>-1.76924853745219E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>3.5740111814045801E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>0.14066344105326201</v>
       </c>
       <c r="F9" s="1">
@@ -34454,7 +34556,7 @@
       <c r="AT9">
         <v>-1.35353935405615E-2</v>
       </c>
-      <c r="AU9" s="6">
+      <c r="AU9" s="5">
         <v>7.0070007510510902E-5</v>
       </c>
       <c r="AV9">
@@ -34642,19 +34744,19 @@
       </c>
     </row>
     <row r="10" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>-0.31955118132842097</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>-0.29062488732779701</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>0.129400353100077</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>2.9094255162074799E-75</v>
       </c>
       <c r="F10" s="1">
@@ -34964,19 +35066,19 @@
       </c>
     </row>
     <row r="11" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>0.12685553368755201</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>0.103437703845213</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>-9.3094981668673096E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>1.4213546281447E-12</v>
       </c>
       <c r="F11" s="1">
@@ -35286,19 +35388,19 @@
       </c>
     </row>
     <row r="12" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>2.7061970623197099E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>2.9908733812120801E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>2.5587065724079899E-3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>0.139889527764398</v>
       </c>
       <c r="F12" s="1">
@@ -35608,19 +35710,19 @@
       </c>
     </row>
     <row r="13" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>5.9748528621055397E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>4.8836333780013001E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>-5.4471042630832599E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>1.1232003490536601E-3</v>
       </c>
       <c r="F13" s="1">
@@ -35930,19 +36032,19 @@
       </c>
     </row>
     <row r="14" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>4.6535227384776799E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>3.2729522719629402E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>-2.2341900854505499E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>9.3196591711666704E-3</v>
       </c>
       <c r="F14" s="1">
@@ -36252,19 +36354,19 @@
       </c>
     </row>
     <row r="15" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>0.12503702298928199</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>0.110775331218745</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>-5.4482589513142297E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>2.3825873731617599E-12</v>
       </c>
       <c r="F15" s="1">
@@ -36574,19 +36676,19 @@
       </c>
     </row>
     <row r="16" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>-4.0669861279881599E-3</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>-1.6007155721544802E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>-2.2335525807215699E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>0.82030537980561802</v>
       </c>
       <c r="F16" s="1">
@@ -36896,19 +36998,19 @@
       </c>
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>6.3862247444685202E-2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>6.3893915408073404E-2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>-2.11122526177208E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>3.65753017753622E-4</v>
       </c>
       <c r="F17" s="1">
@@ -37218,19 +37320,19 @@
       </c>
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>2.09619985976039E-3</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1.72756005789362E-2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>2.7880567346506398E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <v>0.90678329552238801</v>
       </c>
       <c r="F18" s="1">
@@ -37540,19 +37642,19 @@
       </c>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>-8.0431034901418692E-3</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>-3.3639480497431999E-3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>1.8859470912514199E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="10">
         <v>0.653990542864479</v>
       </c>
       <c r="F19" s="1">
@@ -37862,19 +37964,19 @@
       </c>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>-1.6119346586893801E-2</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>-1.89403089252713E-2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>7.2925202274009698E-3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <v>0.36754295644742202</v>
       </c>
       <c r="F20" s="1">
@@ -38184,19 +38286,19 @@
       </c>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>7.8293937469793004E-2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>7.1533725650278601E-2</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>-2.71599377537711E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>1.20032698734863E-5</v>
       </c>
       <c r="F21" s="1">
@@ -38506,19 +38608,19 @@
       </c>
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>0.11959602223075901</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>0.11427303612746301</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>-3.2822584521799002E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>2.0305716530170199E-11</v>
       </c>
       <c r="F22" s="1">
@@ -38828,19 +38930,19 @@
       </c>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>-3.7831132339018102E-2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>-4.02350881784432E-2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>9.9468661822792806E-3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <v>3.4481387852043403E-2</v>
       </c>
       <c r="F23" s="1">
@@ -39150,19 +39252,19 @@
       </c>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>0.10428568584791401</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>8.2682717737698405E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>-5.6407466537764399E-2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <v>5.6289182213855999E-9</v>
       </c>
       <c r="F24" s="1">
@@ -39472,19 +39574,19 @@
       </c>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>-1.8838197139639801E-2</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>1.5120500035407601E-2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>5.6174401499707198E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <v>0.292605920933241</v>
       </c>
       <c r="F25" s="1">
@@ -39794,19 +39896,19 @@
       </c>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>1.8202828707302499E-2</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>1.3154711379163801E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>-6.5504641876145096E-3</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <v>0.31066875658885201</v>
       </c>
       <c r="F26" s="1">
@@ -40116,19 +40218,19 @@
       </c>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>-3.08982928009046E-2</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>-3.2013216253636297E-2</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>2.2883769392274399E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <v>8.4219435654697097E-2</v>
       </c>
       <c r="F27" s="1">
@@ -40438,19 +40540,19 @@
       </c>
     </row>
     <row r="28" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>3.7116882557553098E-2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>4.7953606537306001E-2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>1.4080683751408999E-2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>3.7883769892727202E-2</v>
       </c>
       <c r="F28" s="1">
@@ -40760,19 +40862,19 @@
       </c>
     </row>
     <row r="29" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>-9.2486839201379095E-2</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>-6.4200786111549196E-2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>7.8892675638952706E-2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <v>2.22831593377889E-7</v>
       </c>
       <c r="F29" s="1">
@@ -41082,19 +41184,19 @@
       </c>
     </row>
     <row r="30" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>1.1263168568039701E-2</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>3.4541422732187899E-3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>-2.79526292427115E-2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="10">
         <v>0.52968259324141498</v>
       </c>
       <c r="F30" s="1">
@@ -41404,19 +41506,19 @@
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>9.66079710412905E-2</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>8.1411526308295998E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>-6.0143191680042299E-2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="10">
         <v>6.1455318519965394E-8</v>
       </c>
       <c r="F31" s="1">
@@ -41726,19 +41828,19 @@
       </c>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>8.2749211335109693E-2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>7.37276399942349E-2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>-3.5266633575379097E-2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>3.54590927771686E-6</v>
       </c>
       <c r="F32" s="1">
@@ -42048,19 +42150,19 @@
       </c>
     </row>
     <row r="33" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>2.3835970265395901E-2</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9">
         <v>5.59185686913167E-2</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>6.5360228965112899E-2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>0.18288842358604299</v>
       </c>
       <c r="F33" s="1">
@@ -42370,19 +42472,19 @@
       </c>
     </row>
     <row r="34" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>-0.125621262394086</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>-5.1082866181711199E-2</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>0.14448500191969699</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <v>1.8807567761238702E-12</v>
       </c>
       <c r="F34" s="1">
@@ -42692,19 +42794,19 @@
       </c>
     </row>
     <row r="35" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>3.7166661686334798E-2</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>-5.2568789035444003E-3</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>-8.5230626127644996E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <v>3.8367966559554503E-2</v>
       </c>
       <c r="F35" s="1">
@@ -43014,19 +43116,19 @@
       </c>
     </row>
     <row r="36" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>0.14914041430981601</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>0.104806567083778</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>-0.115302693241226</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <v>5.25792183330636E-17</v>
       </c>
       <c r="F36" s="1">
@@ -43336,19 +43438,19 @@
       </c>
     </row>
     <row r="37" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>0.104664333271211</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>6.3679549780577202E-2</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>-9.9794871752422895E-2</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="10">
         <v>4.4240610208224803E-9</v>
       </c>
       <c r="F37" s="1">
@@ -43658,19 +43760,19 @@
       </c>
     </row>
     <row r="38" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>1.7913227507426899E-2</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>2.5331968274504901E-2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>9.4164936791859607E-3</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="10">
         <v>0.316333510889443</v>
       </c>
       <c r="F38" s="1">
@@ -43980,19 +44082,19 @@
       </c>
     </row>
     <row r="39" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>-0.322485797483134</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>-0.27924920514650797</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>0.15229014705394101</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>6.0033887949511796E-75</v>
       </c>
       <c r="F39" s="1">
@@ -44302,19 +44404,19 @@
       </c>
     </row>
     <row r="40" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>3.2778962099174799E-3</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>5.8035068320292701E-3</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>-1.9024273369858699E-3</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="10">
         <v>0.85455185125210498</v>
       </c>
       <c r="F40" s="1">
@@ -44343,7 +44445,7 @@
       <c r="O40">
         <v>-0.16696752497850501</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <v>7.0070007510510902E-5</v>
       </c>
       <c r="Q40">
@@ -44624,19 +44726,19 @@
       </c>
     </row>
     <row r="41" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>-0.217517675422958</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>-0.204499479325643</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>7.6285012940089394E-2</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="10">
         <v>7.7898918013744803E-35</v>
       </c>
       <c r="F41" s="1">
@@ -44946,19 +45048,19 @@
       </c>
     </row>
     <row r="42" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>-0.108307270991049</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>-0.131954768314899</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>1.7962075246037001E-2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="10">
         <v>1.2334798893222E-9</v>
       </c>
       <c r="F42" s="1">
@@ -45268,19 +45370,19 @@
       </c>
     </row>
     <row r="43" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>-0.29768963959404998</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>-0.24668438805826601</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>0.166541312953919</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="10">
         <v>4.8999765864816403E-65</v>
       </c>
       <c r="F43" s="1">
@@ -45590,19 +45692,19 @@
       </c>
     </row>
     <row r="44" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>0.41634523310169202</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>0.345848097144346</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>-0.202991034430028</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>2.1383478893194198E-127</v>
       </c>
       <c r="F44" s="1">
@@ -45912,19 +46014,19 @@
       </c>
     </row>
     <row r="45" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>0.33236107147376298</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>0.26643666722557002</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>-0.19165459322456899</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>1.4940860089726999E-81</v>
       </c>
       <c r="F45" s="1">
@@ -46234,19 +46336,19 @@
       </c>
     </row>
     <row r="46" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>0.24411531962199901</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>0.19828148119438899</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>-0.13371847251241001</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>3.1110972326611301E-42</v>
       </c>
       <c r="F46" s="1">
@@ -46556,19 +46658,19 @@
       </c>
     </row>
     <row r="47" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>0.41822775019006903</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>0.34967319922400197</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>-0.20432127636678299</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>2.0404285264223401E-111</v>
       </c>
       <c r="F47" s="1">
@@ -46878,19 +46980,19 @@
       </c>
     </row>
     <row r="48" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>0.34643325567525801</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>0.26416692635496902</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>-0.227196575459163</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="10">
         <v>6.7274930028007803E-89</v>
       </c>
       <c r="F48" s="1">
@@ -47200,19 +47302,19 @@
       </c>
     </row>
     <row r="49" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>0.257843489442041</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>0.21781053105079501</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>-0.11532720438065799</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="10">
         <v>5.3602360458390205E-41</v>
       </c>
       <c r="F49" s="1">
@@ -48419,16 +48521,21 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB497CEE-DD61-453B-A171-5A4CF44D0483}">
-  <dimension ref="A2:DE103"/>
+  <dimension ref="A1:DE103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48439,48 +48546,56 @@
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="6"/>
       <c r="H3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>-0.129006160027477</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>9.5259530555946003E-3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>-1.6869161774100298E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>0.51301634739986701</v>
       </c>
       <c r="I4" t="s">
@@ -48786,19 +48901,19 @@
       </c>
     </row>
     <row r="5" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>-0.21616602472108901</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>1.13973198967741E-5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>-0.21753618415822401</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>1.27521630994167E-17</v>
       </c>
       <c r="I5" t="s">
@@ -49104,19 +49219,19 @@
       </c>
     </row>
     <row r="6" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>0.14675220454322299</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>3.1860482619053801E-3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>0.113940875282801</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>1.0180950566989001E-5</v>
       </c>
       <c r="I6" t="s">
@@ -49422,19 +49537,19 @@
       </c>
     </row>
     <row r="7" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>0.134080433890125</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>6.8884758034064497E-3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>3.1069495919429101E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>0.22835405404780701</v>
       </c>
       <c r="I7" t="s">
@@ -49740,19 +49855,19 @@
       </c>
     </row>
     <row r="8" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>9.5834396812463293E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>5.4265502045832803E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>8.34247148537475E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>1.1979623000320299E-3</v>
       </c>
       <c r="I8" t="s">
@@ -50058,19 +50173,19 @@
       </c>
     </row>
     <row r="9" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>0.108961318451997</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="10">
         <v>2.8339200723091401E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>3.7428843092467801E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>0.146553932815154</v>
       </c>
       <c r="I9" t="s">
@@ -50376,19 +50491,19 @@
       </c>
     </row>
     <row r="10" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>-0.28226454882017799</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>7.4313924200052703E-9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>-0.21865599846520101</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>8.6215894484492897E-18</v>
       </c>
       <c r="I10" t="s">
@@ -50694,19 +50809,19 @@
       </c>
     </row>
     <row r="11" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>-5.5082902500249895E-4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>0.99124875239613996</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>0.10987732178361299</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>2.07792232433805E-5</v>
       </c>
       <c r="I11" t="s">
@@ -51012,19 +51127,19 @@
       </c>
     </row>
     <row r="12" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>0.13879916715548399</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>6.5152660084315198E-3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>2.0950124564023499E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>0.42776886944137998</v>
       </c>
       <c r="I12" t="s">
@@ -51330,19 +51445,19 @@
       </c>
     </row>
     <row r="13" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>6.7104615571739801E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="10">
         <v>0.190044267692839</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>7.1484204740921098E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>6.8449331391211799E-3</v>
       </c>
       <c r="I13" t="s">
@@ -51648,19 +51763,19 @@
       </c>
     </row>
     <row r="14" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>0.12865070608196499</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>9.7273212190295798E-3</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>5.8826822693143203E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>2.2565727917439899E-2</v>
       </c>
       <c r="I14" t="s">
@@ -51966,19 +52081,19 @@
       </c>
     </row>
     <row r="15" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>7.21380212445802E-2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>0.147798963687166</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>6.0989108754953399E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>1.79302220582639E-2</v>
       </c>
       <c r="I15" t="s">
@@ -52284,19 +52399,19 @@
       </c>
     </row>
     <row r="16" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>5.7559960733008599E-2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>0.248371717946718</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>1.6864849766422E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>0.51382551751960004</v>
       </c>
       <c r="I16" t="s">
@@ -52602,19 +52717,19 @@
       </c>
     </row>
     <row r="17" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>0.106624372012771</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="10">
         <v>3.2577576923009999E-2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>1.48202399393317E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>0.56666931792711595</v>
       </c>
       <c r="I17" t="s">
@@ -52920,19 +53035,19 @@
       </c>
     </row>
     <row r="18" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>-6.7608151524173293E-2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="10">
         <v>0.175020055307338</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>-2.6913588909645899E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <v>0.29739949423447498</v>
       </c>
       <c r="I18" t="s">
@@ -53238,19 +53353,19 @@
       </c>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>5.3733481878977599E-2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="10">
         <v>0.28307876776159402</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>2.1418715418296101E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="10">
         <v>0.40902035739335302</v>
       </c>
       <c r="I19" t="s">
@@ -53556,19 +53671,19 @@
       </c>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>-4.2955818149487696E-3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="10">
         <v>0.93132323157405095</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>8.1008875428985293E-3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <v>0.75359090023888897</v>
       </c>
       <c r="I20" t="s">
@@ -53874,19 +53989,19 @@
       </c>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>3.0026283318807599E-2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10">
         <v>0.547316239338139</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>9.1067587641492004E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>4.0420528239577802E-4</v>
       </c>
       <c r="I21" t="s">
@@ -54192,19 +54307,19 @@
       </c>
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>0.204325469387071</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="10">
         <v>3.5049713623610802E-5</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>0.106933015487023</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>3.2854746078108501E-5</v>
       </c>
       <c r="I22" t="s">
@@ -54510,19 +54625,19 @@
       </c>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>7.4515604251982698E-2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="10">
         <v>0.13535329544152999</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>1.7889856408667699E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <v>0.487848680532106</v>
       </c>
       <c r="I23" t="s">
@@ -54828,19 +54943,19 @@
       </c>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>9.4581917872418403E-2</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="10">
         <v>5.8446625544033098E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>7.3719934776240795E-2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <v>4.2811310389325999E-3</v>
       </c>
       <c r="I24" t="s">
@@ -55146,19 +55261,19 @@
       </c>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>-8.2827966320462194E-3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="10">
         <v>0.86818122152366695</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <v>2.5415635709054901E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <v>0.32446570011090298</v>
       </c>
       <c r="I25" t="s">
@@ -55464,19 +55579,19 @@
       </c>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>-0.107589527197401</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="10">
         <v>3.1666372692997102E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>-8.9664373167535998E-3</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <v>0.729037363122646</v>
       </c>
       <c r="I26" t="s">
@@ -55782,19 +55897,19 @@
       </c>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>1.8705657369567499E-2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="10">
         <v>0.70846970029214695</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>-4.9492077527101698E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <v>5.4748069337809097E-2</v>
       </c>
       <c r="I27" t="s">
@@ -56100,19 +56215,19 @@
       </c>
     </row>
     <row r="28" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>-4.2493817127514197E-2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="10">
         <v>0.39370715671850998</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>-2.5204103469156701E-3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>0.92212164456829104</v>
       </c>
       <c r="I28" t="s">
@@ -56418,19 +56533,19 @@
       </c>
     </row>
     <row r="29" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>1.5012176501645399E-2</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="10">
         <v>0.76326395685699999</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>-5.9959914785341503E-2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <v>2.0004411277131099E-2</v>
       </c>
       <c r="I29" t="s">
@@ -56736,19 +56851,19 @@
       </c>
     </row>
     <row r="30" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>8.0473272870020804E-2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="10">
         <v>0.105854233722682</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>2.39150356973927E-2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="10">
         <v>0.35466139477002501</v>
       </c>
       <c r="I30" t="s">
@@ -57054,19 +57169,19 @@
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>0.122490328234677</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="10">
         <v>1.3634678183900999E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>4.1377257616543997E-2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="10">
         <v>0.108239313023235</v>
       </c>
       <c r="I31" t="s">
@@ -57372,19 +57487,19 @@
       </c>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>0.192181482661713</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="10">
         <v>9.9436651629913401E-5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>5.4374155646222402E-2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>3.4744701948171003E-2</v>
       </c>
       <c r="I32" t="s">
@@ -57690,19 +57805,19 @@
       </c>
     </row>
     <row r="33" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>6.7144530331274294E-2</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="10">
         <v>0.17800370412734001</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>4.2082378485168999E-2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>0.102352847015188</v>
       </c>
       <c r="I33" t="s">
@@ -58008,19 +58123,19 @@
       </c>
     </row>
     <row r="34" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>-5.9702039901557001E-2</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="10">
         <v>0.23059155692809999</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>-4.8891315585745498E-2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <v>5.8008621181651399E-2</v>
       </c>
       <c r="I34" t="s">
@@ -58326,19 +58441,19 @@
       </c>
     </row>
     <row r="35" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>2.4721791883074402E-2</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="10">
         <v>0.62072676881241196</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>6.2394238963642502E-3</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <v>0.80907932870190702</v>
       </c>
       <c r="I35" t="s">
@@ -58644,19 +58759,19 @@
       </c>
     </row>
     <row r="36" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>0.13703241611577599</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10">
         <v>5.7405863235629297E-3</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>8.9100643587725806E-2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <v>5.34357360392047E-4</v>
       </c>
       <c r="I36" t="s">
@@ -58962,19 +59077,19 @@
       </c>
     </row>
     <row r="37" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>0.11249269171420601</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="10">
         <v>2.3743711111314E-2</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>6.3910306415423002E-2</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="10">
         <v>1.30232973158994E-2</v>
       </c>
       <c r="I37" t="s">
@@ -59280,19 +59395,19 @@
       </c>
     </row>
     <row r="38" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>3.6990361137783999E-2</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="10">
         <v>0.45786324935574202</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>3.8035869458527702E-2</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="10">
         <v>0.13971701665424899</v>
       </c>
       <c r="I38" t="s">
@@ -59598,19 +59713,19 @@
       </c>
     </row>
     <row r="39" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>-0.198107862574255</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="10">
         <v>7.05914587709576E-5</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>-0.27752663904856201</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>2.1014105294579001E-27</v>
       </c>
       <c r="I39" t="s">
@@ -59916,19 +60031,19 @@
       </c>
     </row>
     <row r="40" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>-0.14641395688658901</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="10">
         <v>3.1810625941459301E-3</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>-3.0886351083267399E-2</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="10">
         <v>0.23048970468796001</v>
       </c>
       <c r="I40" t="s">
@@ -60234,19 +60349,19 @@
       </c>
     </row>
     <row r="41" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>-0.158056647832063</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="10">
         <v>1.41742771714586E-3</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>-0.19263619638346899</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="10">
         <v>4.4296354567007702E-14</v>
       </c>
       <c r="I41" t="s">
@@ -60552,19 +60667,19 @@
       </c>
     </row>
     <row r="42" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>-0.10642114188836101</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="10">
         <v>3.2262072519503297E-2</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>-8.6619145870488704E-2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="10">
         <v>7.5622760526500299E-4</v>
       </c>
       <c r="I42" t="s">
@@ -60870,19 +60985,19 @@
       </c>
     </row>
     <row r="43" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>-0.231523514113148</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="10">
         <v>2.48869157248222E-6</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>-0.19460919455137499</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="10">
         <v>2.4595094446992501E-14</v>
       </c>
       <c r="I43" t="s">
@@ -61188,19 +61303,19 @@
       </c>
     </row>
     <row r="44" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>0.22335446995403499</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="10">
         <v>7.8101019111929903E-6</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>0.25617308708394299</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>7.0650675286914596E-23</v>
       </c>
       <c r="I44" t="s">
@@ -61506,19 +61621,19 @@
       </c>
     </row>
     <row r="45" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>0.22012794531975899</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="10">
         <v>7.7760175918340595E-6</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>0.13719870112888899</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>8.8574907832945205E-8</v>
       </c>
       <c r="I45" t="s">
@@ -61824,19 +61939,19 @@
       </c>
     </row>
     <row r="46" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>0.16339063280601401</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="10">
         <v>1.1684084325657999E-3</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>0.108576987706774</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>3.7149274611533897E-5</v>
       </c>
       <c r="I46" t="s">
@@ -62142,19 +62257,19 @@
       </c>
     </row>
     <row r="47" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>0.34790830030683401</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="10">
         <v>4.1460211296975402E-11</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>0.26572827827478201</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>1.34329646637649E-21</v>
       </c>
       <c r="I47" t="s">
@@ -62460,19 +62575,19 @@
       </c>
     </row>
     <row r="48" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>0.24734984490383899</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="10">
         <v>4.7856907757275999E-7</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>0.24609948212937199</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="10">
         <v>3.0630569913093101E-22</v>
       </c>
       <c r="I48" t="s">
@@ -62778,19 +62893,19 @@
       </c>
     </row>
     <row r="49" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>0.26643906057254002</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="10">
         <v>5.9577234918220795E-7</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>0.12840188663774199</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="10">
         <v>5.6909836926921097E-6</v>
       </c>
       <c r="I49" t="s">

--- a/output/corr_pvalues.xlsx
+++ b/output/corr_pvalues.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\touchCouples\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED9B22-8F32-44BA-804D-969D6B5D18DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1FC5F3-A250-4B88-BA8E-F012C96B4D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Group Concession" sheetId="2" r:id="rId2"/>
     <sheet name="Group Disagreement" sheetId="4" r:id="rId3"/>
     <sheet name="Group Agreement" sheetId="3" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="71">
   <si>
     <t>Couple Frequency of Touch</t>
   </si>
@@ -215,6 +216,33 @@
   <si>
     <t>p-values</t>
   </si>
+  <si>
+    <t>Concession</t>
+  </si>
+  <si>
+    <t>Disagreement</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>More Frequency</t>
+  </si>
+  <si>
+    <t>Less Frequency</t>
+  </si>
 </sst>
 </file>
 
@@ -238,15 +266,21 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -315,11 +349,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,6 +471,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1245,7 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="16">
         <v>-0.31162278529333998</v>
       </c>
       <c r="C5" s="7">
@@ -8980,10 +9141,10 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>-0.14554089284969199</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>-5.9834232582440097E-2</v>
       </c>
       <c r="D29" s="7">
@@ -9309,10 +9470,10 @@
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>8.4030926466336198E-2</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>2.3379001041423399E-2</v>
       </c>
       <c r="D30" s="7">
@@ -9638,10 +9799,10 @@
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>0.15604780142771499</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>9.4557091461355797E-2</v>
       </c>
       <c r="D31" s="7">
@@ -9967,10 +10128,10 @@
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>0.120684476569142</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>8.4705889459549794E-2</v>
       </c>
       <c r="D32" s="7">
@@ -10296,10 +10457,10 @@
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>-2.9499492447240101E-2</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9">
         <v>3.6500251068159302E-2</v>
       </c>
       <c r="D33" s="7">
@@ -10625,10 +10786,10 @@
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>-0.174183934915841</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>-7.8162386202791007E-2</v>
       </c>
       <c r="D34" s="7">
@@ -10954,10 +11115,10 @@
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>8.1597795678634705E-2</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>2.0818262780090701E-2</v>
       </c>
       <c r="D35" s="7">
@@ -11283,10 +11444,10 @@
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>0.18229269599864001</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>0.11905412576920001</v>
       </c>
       <c r="D36" s="7">
@@ -11612,10 +11773,10 @@
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>0.14371300000312501</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>8.8541133971239E-2</v>
       </c>
       <c r="D37" s="7">
@@ -15886,9 +16047,10 @@
       </c>
     </row>
     <row r="50" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -16194,9 +16356,10 @@
       </c>
     </row>
     <row r="51" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -16502,9 +16665,10 @@
       </c>
     </row>
     <row r="52" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -16954,8 +17118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B67DA-A12B-4221-BB82-0A71DDA5828F}">
   <dimension ref="A2:DF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25377,7 +25541,7 @@
       <c r="C29" s="9">
         <v>3.6871992264321599E-2</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="17">
         <v>0.18601123459219901</v>
       </c>
       <c r="E29" s="10">
@@ -25700,7 +25864,7 @@
       <c r="C30" s="9">
         <v>-2.7801258857279201E-2</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="17">
         <v>-0.13022730448606101</v>
       </c>
       <c r="E30" s="10">
@@ -26023,7 +26187,7 @@
       <c r="C31" s="9">
         <v>2.6235899508243499E-2</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="17">
         <v>-0.13581323254091601</v>
       </c>
       <c r="E31" s="10">
@@ -26346,7 +26510,7 @@
       <c r="C32" s="9">
         <v>1.26287551331828E-2</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="17">
         <v>-0.104564940715761</v>
       </c>
       <c r="E32" s="10">
@@ -26669,7 +26833,7 @@
       <c r="C33" s="9">
         <v>5.2182951037883799E-2</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="17">
         <v>0.10857444256891299</v>
       </c>
       <c r="E33" s="10">
@@ -26992,7 +27156,7 @@
       <c r="C34" s="9">
         <v>-3.88164217958109E-2</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="17">
         <v>0.16624730753113501</v>
       </c>
       <c r="E34" s="10">
@@ -27638,7 +27802,7 @@
       <c r="C36" s="9">
         <v>5.8612342127050097E-2</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="17">
         <v>-9.5617563977452594E-2</v>
       </c>
       <c r="E36" s="10">
@@ -27961,7 +28125,7 @@
       <c r="C37" s="9">
         <v>3.3784183224757701E-2</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="17">
         <v>-0.114865039124634</v>
       </c>
       <c r="E37" s="10">
@@ -29899,7 +30063,7 @@
       <c r="C43" s="9">
         <v>-0.13154783760335101</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="17">
         <v>0.171696779574844</v>
       </c>
       <c r="E43" s="10">
@@ -30222,7 +30386,7 @@
       <c r="C44" s="9">
         <v>0.25183164749157599</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="17">
         <v>-0.19792934733963799</v>
       </c>
       <c r="E44" s="10">
@@ -30545,7 +30709,7 @@
       <c r="C45" s="9">
         <v>0.19437551274571099</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="17">
         <v>-0.24851604244515299</v>
       </c>
       <c r="E45" s="10">
@@ -30868,7 +31032,7 @@
       <c r="C46" s="9">
         <v>0.14266863511991201</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="17">
         <v>-0.1561345491019</v>
       </c>
       <c r="E46" s="10">
@@ -31191,7 +31355,7 @@
       <c r="C47" s="9">
         <v>0.22500786937824899</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="17">
         <v>-0.245098486907152</v>
       </c>
       <c r="E47" s="10">
@@ -31514,7 +31678,7 @@
       <c r="C48" s="9">
         <v>0.196361332433452</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="17">
         <v>-0.235417639881841</v>
       </c>
       <c r="E48" s="10">
@@ -31837,7 +32001,7 @@
       <c r="C49" s="9">
         <v>0.123333176616472</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="17">
         <v>-0.17990149998760199</v>
       </c>
       <c r="E49" s="10">
@@ -32763,8 +32927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD14A1-276E-43E5-83E2-F3A6A37721BD}">
   <dimension ref="A1:DE52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33143,7 +33307,7 @@
       <c r="C5" s="9">
         <v>-0.30304212719284601</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="17">
         <v>0.137000825425839</v>
       </c>
       <c r="E5" s="10">
@@ -34753,7 +34917,7 @@
       <c r="C10" s="9">
         <v>-0.29062488732779701</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="17">
         <v>0.129400353100077</v>
       </c>
       <c r="E10" s="10">
@@ -42481,7 +42645,7 @@
       <c r="C34" s="9">
         <v>-5.1082866181711199E-2</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="17">
         <v>0.14448500191969699</v>
       </c>
       <c r="E34" s="10">
@@ -43125,7 +43289,7 @@
       <c r="C36" s="9">
         <v>0.104806567083778</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="17">
         <v>-0.115302693241226</v>
       </c>
       <c r="E36" s="10">
@@ -43447,7 +43611,7 @@
       <c r="C37" s="9">
         <v>6.3679549780577202E-2</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="17">
         <v>-9.9794871752422895E-2</v>
       </c>
       <c r="E37" s="10">
@@ -44091,7 +44255,7 @@
       <c r="C39" s="9">
         <v>-0.27924920514650797</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="17">
         <v>0.15229014705394101</v>
       </c>
       <c r="E39" s="10">
@@ -45379,7 +45543,7 @@
       <c r="C43" s="9">
         <v>-0.24668438805826601</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="17">
         <v>0.166541312953919</v>
       </c>
       <c r="E43" s="10">
@@ -45701,7 +45865,7 @@
       <c r="C44" s="9">
         <v>0.345848097144346</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="17">
         <v>-0.202991034430028</v>
       </c>
       <c r="E44" s="10">
@@ -46023,7 +46187,7 @@
       <c r="C45" s="9">
         <v>0.26643666722557002</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="17">
         <v>-0.19165459322456899</v>
       </c>
       <c r="E45" s="10">
@@ -46345,7 +46509,7 @@
       <c r="C46" s="9">
         <v>0.19828148119438899</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="17">
         <v>-0.13371847251241001</v>
       </c>
       <c r="E46" s="10">
@@ -46667,7 +46831,7 @@
       <c r="C47" s="9">
         <v>0.34967319922400197</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="17">
         <v>-0.20432127636678299</v>
       </c>
       <c r="E47" s="10">
@@ -46989,7 +47153,7 @@
       <c r="C48" s="9">
         <v>0.26416692635496902</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="17">
         <v>-0.227196575459163</v>
       </c>
       <c r="E48" s="10">
@@ -47311,7 +47475,7 @@
       <c r="C49" s="9">
         <v>0.21781053105079501</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="17">
         <v>-0.11532720438065799</v>
       </c>
       <c r="E49" s="10">
@@ -48534,8 +48698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB497CEE-DD61-453B-A171-5A4CF44D0483}">
   <dimension ref="A1:DE103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:E49"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79178,4 +79342,2610 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C9255-5EF9-41F0-AB1E-C8B4A5A25604}">
+  <dimension ref="A2:R48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="2"/>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="22" t="str">
+        <f>IF(AND(ABS(O3)&gt;0.1,ABS(O3)&lt;0.39),"Weak",
+IF(AND(ABS(O3)&gt;0.4,ABS(O3)&lt;0.59),"Moderate",
+"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="M3" s="22" t="str">
+        <f t="shared" ref="M3:N18" si="0">IF(AND(ABS(P3)&gt;0.1,ABS(P3)&lt;0.39),"Weak",
+IF(AND(ABS(P3)&gt;0.4,ABS(P3)&lt;0.59),"Moderate",
+"-"))</f>
+        <v>-</v>
+      </c>
+      <c r="N3" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O3" s="7">
+        <v>-1.8848571703955101E-2</v>
+      </c>
+      <c r="P3" s="9">
+        <v>-6.9697141098774102E-3</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>-4.4867293312465001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="27" t="str">
+        <f t="shared" ref="L4:N48" si="1">IF(AND(ABS(O4)&gt;0.1,ABS(O4)&lt;0.39),"Weak",
+IF(AND(ABS(O4)&gt;0.4,ABS(O4)&lt;0.59),"Moderate",
+"-"))</f>
+        <v>Weak</v>
+      </c>
+      <c r="M4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Weak</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.12267821175115499</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5.9796839055691102E-2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.137000825425839</v>
+      </c>
+      <c r="R4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M5" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O5" s="7">
+        <v>-0.102289689833514</v>
+      </c>
+      <c r="P5" s="9">
+        <v>-6.00695472407781E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>-3.17023678793453E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-7.6503968303222201E-3</v>
+      </c>
+      <c r="P6" s="9">
+        <v>4.6144957729153398E-2</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>-9.7525185062052495E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-4.8560327459303998E-2</v>
+      </c>
+      <c r="P7" s="9">
+        <v>-4.2470938650648701E-2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>-5.4516651913101802E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1.53049347632293E-2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1.1653612528787501E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>3.5740111814045801E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M9" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>Weak</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.119563590476204</v>
+      </c>
+      <c r="P9" s="9">
+        <v>7.08335966739293E-2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.129400353100077</v>
+      </c>
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O10" s="7">
+        <v>-0.121689709611531</v>
+      </c>
+      <c r="P10" s="9">
+        <v>-8.3318399579530994E-2</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>-9.3094981668673096E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O11" s="7">
+        <v>-7.8244965009721095E-3</v>
+      </c>
+      <c r="P11" s="9">
+        <v>4.5202725401009301E-2</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>2.5587065724079899E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O12" s="7">
+        <v>-5.39679155032795E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>-5.0153627196763299E-2</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>-5.4471042630832599E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O13" s="7">
+        <v>-3.9099728584068801E-2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>-6.1185167093181798E-3</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>-2.2341900854505499E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O14" s="7">
+        <v>-6.3032858050657004E-2</v>
+      </c>
+      <c r="P14" s="9">
+        <v>-7.1124139161250002E-2</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>-5.4482589513142297E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M15" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O15" s="7">
+        <v>-3.7777366855286397E-2</v>
+      </c>
+      <c r="P15" s="9">
+        <v>-2.7763331326092398E-2</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>-2.2335525807215699E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M16" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O16" s="7">
+        <v>-3.6286307700515399E-2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>-3.7512724062207202E-2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>-2.11122526177208E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O17" s="7">
+        <v>9.9881167001216298E-2</v>
+      </c>
+      <c r="P17" s="9">
+        <v>8.8299576324766205E-2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>2.7880567346506398E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M18" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O18" s="7">
+        <v>8.38010705862729E-3</v>
+      </c>
+      <c r="P18" s="9">
+        <v>4.0081853220341697E-2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>1.8859470912514199E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M19" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N19" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2.82355389131058E-2</v>
+      </c>
+      <c r="P19" s="9">
+        <v>2.8068782939947801E-2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>7.2925202274009698E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N20" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O20" s="7">
+        <v>-3.9488322496886899E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <v>-1.1422991008262899E-2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>-2.71599377537711E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N21" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O21" s="7">
+        <v>-6.2586192949529801E-2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>6.1866136970922E-4</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>-3.2822584521799002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N22" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O22" s="7">
+        <v>-1.26797245599365E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>-3.27627426255837E-2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>9.9468661822792806E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N23" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O23" s="7">
+        <v>-8.1846267469124101E-2</v>
+      </c>
+      <c r="P23" s="9">
+        <v>-2.8231534117800501E-2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>-5.6407466537764399E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N24" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.10242196436794999</v>
+      </c>
+      <c r="P24" s="9">
+        <v>8.6192742338254802E-2</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>5.6174401499707198E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M25" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N25" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O25" s="7">
+        <v>-4.9724138975721496E-3</v>
+      </c>
+      <c r="P25" s="9">
+        <v>4.36647316475932E-2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>-6.5504641876145096E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M26" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N26" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2.13522130128234E-2</v>
+      </c>
+      <c r="P26" s="9">
+        <v>5.3441205473188702E-2</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>2.2883769392274399E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M27" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N27" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O27" s="7">
+        <v>8.5646339416081907E-2</v>
+      </c>
+      <c r="P27" s="9">
+        <v>9.2102582399556696E-2</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>1.4080683751408999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M28" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N28" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.167304323133286</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0.18601123459219901</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>7.8892675638952706E-2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M29" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N29" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O29" s="7">
+        <v>-0.12769917942035999</v>
+      </c>
+      <c r="P29" s="9">
+        <v>-0.13022730448606101</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>-2.79526292427115E-2</v>
+      </c>
+      <c r="R29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M30" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N30" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O30" s="7">
+        <v>-0.145246258413158</v>
+      </c>
+      <c r="P30" s="9">
+        <v>-0.13581323254091601</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>-6.0143191680042299E-2</v>
+      </c>
+      <c r="R30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M31" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N31" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O31" s="7">
+        <v>-9.9252536410711606E-2</v>
+      </c>
+      <c r="P31" s="9">
+        <v>-0.104564940715761</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>-3.5266633575379097E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M32" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N32" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.10933059350428199</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0.10857444256891299</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>6.5360228965112899E-2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M33" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N33" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.198561152659366</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0.16624730753113501</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0.14448500191969699</v>
+      </c>
+      <c r="R33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M34" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N34" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O34" s="7">
+        <v>-0.127909528581551</v>
+      </c>
+      <c r="P34" s="9">
+        <v>-8.4564227270826603E-2</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>-8.5230626127644996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M35" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N35" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O35" s="7">
+        <v>-0.16255453501206399</v>
+      </c>
+      <c r="P35" s="9">
+        <v>-9.5617563977452594E-2</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>-0.115302693241226</v>
+      </c>
+      <c r="R35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M36" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N36" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O36" s="7">
+        <v>-0.13549261555725101</v>
+      </c>
+      <c r="P36" s="9">
+        <v>-0.114865039124634</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>-9.9794871752422895E-2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M37" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N37" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O37" s="7">
+        <v>-1.04501821710125E-2</v>
+      </c>
+      <c r="P37" s="9">
+        <v>-7.9957238897149299E-3</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>9.4164936791859607E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M38" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N38" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0.16721970892742799</v>
+      </c>
+      <c r="P38" s="9">
+        <v>7.01126955475809E-2</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0.15229014705394101</v>
+      </c>
+      <c r="R38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M39" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N39" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O39" s="7">
+        <v>-5.2813151571996899E-3</v>
+      </c>
+      <c r="P39" s="9">
+        <v>5.5047301033310202E-3</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>-1.9024273369858699E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M40" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N40" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0.12338997548997099</v>
+      </c>
+      <c r="P40" s="9">
+        <v>5.1126336681130702E-2</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>7.6285012940089394E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M41" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N41" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="O41" s="7">
+        <v>4.1446914861420499E-2</v>
+      </c>
+      <c r="P41" s="9">
+        <v>-7.2848364067017293E-2</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>1.7962075246037001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M42" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N42" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0.23493092689226899</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0.171696779574844</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0.166541312953919</v>
+      </c>
+      <c r="R42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M43" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N43" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O43" s="7">
+        <v>-0.32272231507112298</v>
+      </c>
+      <c r="P43" s="9">
+        <v>-0.19792934733963799</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>-0.202991034430028</v>
+      </c>
+      <c r="R43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M44" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N44" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O44" s="7">
+        <v>-0.32077313839485599</v>
+      </c>
+      <c r="P44" s="9">
+        <v>-0.24851604244515299</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>-0.19165459322456899</v>
+      </c>
+      <c r="R44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M45" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N45" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O45" s="7">
+        <v>-0.213998768277745</v>
+      </c>
+      <c r="P45" s="9">
+        <v>-0.1561345491019</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>-0.13371847251241001</v>
+      </c>
+      <c r="R45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M46" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N46" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O46" s="7">
+        <v>-0.315959427394429</v>
+      </c>
+      <c r="P46" s="9">
+        <v>-0.245098486907152</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>-0.20432127636678299</v>
+      </c>
+      <c r="R46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M47" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N47" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O47" s="7">
+        <v>-0.32917063735725499</v>
+      </c>
+      <c r="P47" s="9">
+        <v>-0.235417639881841</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>-0.227196575459163</v>
+      </c>
+      <c r="R47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="M48" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="N48" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Weak</v>
+      </c>
+      <c r="O48" s="7">
+        <v>-0.199158689941385</v>
+      </c>
+      <c r="P48" s="9">
+        <v>-0.17990149998760199</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>-0.11532720438065799</v>
+      </c>
+      <c r="R48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>